--- a/data/Subset1_WithDialogActs/Video Mosaic Grade 4 Generating Models 8.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Video Mosaic Grade 4 Generating Models 8.xlsx_with_dialog_acts.xlsx
@@ -1307,12 +1307,12 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1497,12 +1497,12 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1839,12 +1839,12 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1915,12 +1915,12 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2369,12 +2369,12 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3015,12 +3015,12 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3471,12 +3471,12 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3547,12 +3547,12 @@
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
